--- a/biology/Botanique/Pando_(arbre)/Pando_(arbre).xlsx
+++ b/biology/Botanique/Pando_(arbre)/Pando_(arbre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pando (qui, en latin, signifie « je m'étends ») est le nom donné à une immense colonie clonale d'environ 47 000 peupliers faux-trembles (Populus tremuloides), située à l'ouest des États-Unis dans l'Utah.
@@ -512,11 +524,13 @@
           <t>Caractéristiques et records</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette colonie est considérée comme l'organisme vivant le plus lourd[1] et le plus âgé[2] de la planète, avec une masse organique estimée à 6 000 tonnes, et un âge de 80 000 ans. Toutefois, cet âge n'est pas confirmé par les scientifiques, car il n'existe pas de méthode fiable pour calculer l'âge d'un tel organisme.
-Une étude climatologique[3] de la zone géographique autour de la colonie indique que l'emplacement de la colonie était susceptible d'être recouvert par les glaciers en extension maximale durant le dernier maximum glaciaire (DMG) datant d'il y a 21000 ans. Les diverses glaciations depuis sont susceptibles d'avoir recouvertes la zone de croissance de la colonie. Ces éléments combinés à des études de modélisation[4] de la croissance biologique[5] de la colonie clonale sont en faveur d'une estimation plus vraisemblable de l'ordre de 14000 ans.
-Si les colonies de faux-trembles nord-américaines se déploient en moyenne sur une surface de 0,04 ha, Pando couvre à elle seule 43 ha, étant de loin la plus étendue au monde[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette colonie est considérée comme l'organisme vivant le plus lourd et le plus âgé de la planète, avec une masse organique estimée à 6 000 tonnes, et un âge de 80 000 ans. Toutefois, cet âge n'est pas confirmé par les scientifiques, car il n'existe pas de méthode fiable pour calculer l'âge d'un tel organisme.
+Une étude climatologique de la zone géographique autour de la colonie indique que l'emplacement de la colonie était susceptible d'être recouvert par les glaciers en extension maximale durant le dernier maximum glaciaire (DMG) datant d'il y a 21000 ans. Les diverses glaciations depuis sont susceptibles d'avoir recouvertes la zone de croissance de la colonie. Ces éléments combinés à des études de modélisation de la croissance biologique de la colonie clonale sont en faveur d'une estimation plus vraisemblable de l'ordre de 14000 ans.
+Si les colonies de faux-trembles nord-américaines se déploient en moyenne sur une surface de 0,04 ha, Pando couvre à elle seule 43 ha, étant de loin la plus étendue au monde.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pando est protégée de la déforestation par le Service des forêts des États-Unis. Cependant elle fait face à d'autres menaces[7],[8] telles que :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pando est protégée de la déforestation par le Service des forêts des États-Unis. Cependant elle fait face à d'autres menaces, telles que :
 la surpopulation de cerfs mulets et de cerfs élaphes, due au manque de prédateurs naturels et au statut protégé de cette forêt. Les cerfs mangent les jeunes pousses de peupliers, ce qui limite la croissance de Pando. Le phénomène est limité par un grillage installé autour d'un secteur de la colonie.
 les maladies.
 le changement climatique qui entraîne une diminution des ressources en eau.</t>
